--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2726788.874184979</v>
+        <v>-2729403.152801431</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>74.10393120075581</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>74.10393120075533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851268</v>
+        <v>52.8684566485127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.0869132767431</v>
+        <v>14.08691327674312</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792922</v>
+        <v>94.83943180792923</v>
       </c>
       <c r="S4" t="n">
         <v>192.0586035981867</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>56.36815306948738</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.924440508957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242881</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079187</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4415385849327</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.105140864292</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200678</v>
+        <v>160.5958651236762</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730304</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.6692588683104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695646</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428151</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833964</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428186</v>
+        <v>20.88994825141623</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428229</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740346</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892431</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596491</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833812</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016452</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833737</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308908</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265259</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002298</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808201</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652582</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556.5871098736779</v>
+        <v>556.5871098736775</v>
       </c>
       <c r="C2" t="n">
-        <v>187.6245929332663</v>
+        <v>187.6245929332658</v>
       </c>
       <c r="D2" t="n">
-        <v>112.7721371749273</v>
+        <v>187.6245929332658</v>
       </c>
       <c r="E2" t="n">
         <v>112.7721371749273</v>
@@ -4328,16 +4328,16 @@
         <v>59.36965571178312</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734994</v>
+        <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447438</v>
+        <v>520.5745606447431</v>
       </c>
       <c r="L2" t="n">
-        <v>925.851203018502</v>
+        <v>925.8512030185013</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
         <v>1903.509852877247</v>
@@ -4349,13 +4349,13 @@
         <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719471</v>
+        <v>2927.67980271947</v>
       </c>
       <c r="R2" t="n">
         <v>2968.482785589156</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338331</v>
+        <v>2851.45053833833</v>
       </c>
       <c r="T2" t="n">
         <v>2644.177727152598</v>
@@ -4373,7 +4373,7 @@
         <v>1333.326281913611</v>
       </c>
       <c r="Y2" t="n">
-        <v>943.1869499377997</v>
+        <v>943.1869499377992</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4407,28 @@
         <v>59.36965571178312</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>138.389475714895</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168899</v>
+        <v>351.6017589168898</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671323</v>
+        <v>684.6145268671321</v>
       </c>
       <c r="M3" t="n">
         <v>1092.581588039813</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.754968293605</v>
+        <v>1525.754968293604</v>
       </c>
       <c r="O3" t="n">
         <v>1899.804188738134</v>
       </c>
       <c r="P3" t="n">
-        <v>2180.67859866338</v>
+        <v>2180.678598663379</v>
       </c>
       <c r="Q3" t="n">
-        <v>2526.493021853938</v>
+        <v>2522.971720424101</v>
       </c>
       <c r="R3" t="n">
         <v>2558.264324026496</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.36965571178312</v>
+        <v>207.2827492941762</v>
       </c>
       <c r="C4" t="n">
-        <v>59.36965571178312</v>
+        <v>207.2827492941762</v>
       </c>
       <c r="D4" t="n">
-        <v>59.36965571178312</v>
+        <v>207.2827492941762</v>
       </c>
       <c r="E4" t="n">
         <v>59.36965571178312</v>
@@ -4486,22 +4486,22 @@
         <v>59.36965571178312</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945982</v>
+        <v>95.29667538945978</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778208</v>
+        <v>284.1726417778207</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386277</v>
+        <v>581.3952856386275</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945954</v>
+        <v>905.1640129945952</v>
       </c>
       <c r="N4" t="n">
         <v>1226.668860094579</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>1507.614327944343</v>
       </c>
       <c r="P4" t="n">
         <v>1724.49102829028</v>
@@ -4516,22 +4516,22 @@
         <v>1501.414138493183</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108941</v>
+        <v>1279.08050610894</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202813</v>
+        <v>989.9704007202811</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143945</v>
+        <v>735.2859125143942</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774338</v>
+        <v>445.8687424774336</v>
       </c>
       <c r="X4" t="n">
-        <v>217.8791915794165</v>
+        <v>388.9312141244159</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.36965571178312</v>
+        <v>388.9312141244159</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003178</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107103</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>282.0423703961108</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.0505103572855</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6989751875252</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285689</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285689</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678938</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080694</v>
+        <v>979.2965659530259</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910866</v>
+        <v>568.3106611634184</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4841,13 @@
         <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4875,13 +4875,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704886</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="11">
@@ -5030,40 +5030,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400727</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121645</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5464,7 +5464,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812165</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.847013829825</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.862038843392</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6409,25 +6409,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345477</v>
@@ -6616,7 +6616,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,16 +6877,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,25 +7582,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>206.5204176047014</v>
       </c>
       <c r="R3" t="n">
-        <v>41.96479968017251</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>280.5791104199271</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>307.8264388715065</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>169.3415023195498</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.66021284313783</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393085</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465653</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393049</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393007</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823428</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228823</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788548</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823133</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1424705.428757757</v>
+        <v>1424705.428757758</v>
       </c>
     </row>
     <row r="6">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973084</v>
+        <v>95186.49343973125</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>213599.1454818041</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359967</v>
+        <v>22978.01038359976</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18331.20513627365</v>
+        <v>18331.20513627366</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26439,13 +26439,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992389</v>
       </c>
       <c r="K4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992389</v>
       </c>
       <c r="M4" t="n">
         <v>20987.72340992391</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1347868.684328721</v>
+        <v>-1348298.24319531</v>
       </c>
       <c r="C6" t="n">
-        <v>-295304.3329193059</v>
+        <v>-295304.3329193063</v>
       </c>
       <c r="D6" t="n">
-        <v>-200117.8394795751</v>
+        <v>-200117.839479575</v>
       </c>
       <c r="E6" t="n">
-        <v>-439531.8557780928</v>
+        <v>-439566.5937035287</v>
       </c>
       <c r="F6" t="n">
-        <v>-114119.3939707376</v>
+        <v>-114154.1318961732</v>
       </c>
       <c r="G6" t="n">
-        <v>-114119.3939707376</v>
+        <v>-114154.1318961732</v>
       </c>
       <c r="H6" t="n">
-        <v>-114119.3939707376</v>
+        <v>-114154.1318961732</v>
       </c>
       <c r="I6" t="n">
-        <v>-114119.3939707376</v>
+        <v>-114154.1318961732</v>
       </c>
       <c r="J6" t="n">
-        <v>-337750.9847456434</v>
+        <v>-337750.9847456433</v>
       </c>
       <c r="K6" t="n">
-        <v>-147129.849647439</v>
+        <v>-147129.8496474391</v>
       </c>
       <c r="L6" t="n">
         <v>-124151.8392638393</v>
       </c>
       <c r="M6" t="n">
-        <v>-209206.8671993511</v>
+        <v>-209206.8671993512</v>
       </c>
       <c r="N6" t="n">
         <v>-124151.8392638393</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.120696397289</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646397006</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.120696397289</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.120696397289</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972891</v>
+        <v>742.120696397289</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303233</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781101</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32.80528251369509</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>86.32882178227717</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333857</v>
+        <v>250.3258605297772</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117341</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.816298607236513e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31042,7 +31042,7 @@
         <v>4.088124840720915</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503308</v>
+        <v>41.86750852503307</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218932</v>
@@ -31051,22 +31051,22 @@
         <v>346.9744857001371</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078535</v>
+        <v>520.0248102078534</v>
       </c>
       <c r="L2" t="n">
         <v>645.1367608020663</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382368</v>
+        <v>717.8389509382367</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419352</v>
+        <v>729.4543356419351</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570166</v>
+        <v>688.8030442570165</v>
       </c>
       <c r="P2" t="n">
-        <v>587.877462251719</v>
+        <v>587.8774622517188</v>
       </c>
       <c r="Q2" t="n">
         <v>441.471491393401</v>
@@ -31075,7 +31075,7 @@
         <v>256.8006720259354</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792794</v>
+        <v>93.15814480792793</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025581</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863083</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030925</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467197</v>
+        <v>75.30971957467196</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.65562666981</v>
       </c>
       <c r="K3" t="n">
         <v>353.2073816026366</v>
@@ -31142,19 +31142,19 @@
         <v>568.890581026557</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429592</v>
+        <v>520.4237398429591</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913462</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224526</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005167</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092173</v>
+        <v>40.62887419092172</v>
       </c>
       <c r="T3" t="n">
         <v>8.816513667404267</v>
@@ -31203,7 +31203,7 @@
         <v>16.30407853997514</v>
       </c>
       <c r="I4" t="n">
-        <v>55.1471286403249</v>
+        <v>55.14712864032489</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31218,7 +31218,7 @@
         <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288359</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443082</v>
@@ -31230,13 +31230,13 @@
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924027</v>
+        <v>82.45395956924025</v>
       </c>
       <c r="S4" t="n">
         <v>31.9579944387856</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881707</v>
+        <v>7.835293367881706</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>165.9285811734508</v>
       </c>
       <c r="K2" t="n">
-        <v>299.934959162873</v>
+        <v>299.9349591628729</v>
       </c>
       <c r="L2" t="n">
         <v>409.3703458320791</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109641</v>
+        <v>487.492717710964</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453443</v>
+        <v>500.0412720453442</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353299</v>
+        <v>458.7048328353297</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964494</v>
+        <v>356.6444664964493</v>
       </c>
       <c r="Q2" t="n">
         <v>219.1658015189515</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314337</v>
+        <v>79.81800000314334</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282777</v>
+        <v>215.3659426282776</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830731</v>
+        <v>336.376533283073</v>
       </c>
       <c r="M3" t="n">
         <v>412.0879405784655</v>
@@ -34790,16 +34790,16 @@
         <v>437.5488689432237</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985148</v>
+        <v>377.8274953985147</v>
       </c>
       <c r="P3" t="n">
         <v>283.711525177016</v>
       </c>
       <c r="Q3" t="n">
-        <v>349.3074981722802</v>
+        <v>345.7506280411324</v>
       </c>
       <c r="R3" t="n">
-        <v>32.09222441672534</v>
+        <v>35.64909454787362</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34866,16 +34866,16 @@
         <v>327.0391185413816</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080645</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583479</v>
+        <v>283.7833008583478</v>
       </c>
       <c r="P4" t="n">
         <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.3930359218342</v>
+        <v>67.39303592183417</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
